--- a/data/Fuqua Form Automation Excel.xlsx
+++ b/data/Fuqua Form Automation Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/ss1376_duke_edu/Documents/Semester III     (Fall '23)/590.11 (Citizen Developer)/Submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA7D9A3A-D15E-4DB9-9E34-6028EA2AC7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{798F3B47-D769-4839-9682-F098D2628B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{47053799-D221-CF48-B6A3-5C4D305CCBD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="98">
   <si>
     <t>Full name</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>[{"name":"Application Status_Shubham Safaya 1.pdf","link":"https://prodduke-my.sharepoint.com/personal/ss1376_duke_edu/Documents/Apps/Microsoft%20Forms/COURSE%20REGISTRATION%20FORM%20FOR%20FUQUA%20SCHOOL%20OF%20BUSIN/Question/Application%20Status_Shubham%20Safaya%201.pdf","id":"01PTFH3ZJR2MKFGP2B4BHL5CH7PNWPTYXI","type":null,"size":396856,"referenceId":"01PTFH3ZOAI32ZZJV3MFGKRQOG7FU2GQGO","driveId":"b!8diRqFOaLEagO-e3DIxWa0EuFyRUsCZMoj-tGIteRgcUEH_Jg8XiS5JVyP40t4Sc","status":1,"uploadSessionUrl":null}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutwik </t>
   </si>
   <si>
     <t>MEM</t>
@@ -724,7 +721,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="15.95"/>
@@ -991,13 +988,13 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>45181</v>
       </c>
-      <c r="C5">
-        <v>1227809</v>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1227809</v>
@@ -1012,28 +1009,28 @@
         <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>10271</v>
       </c>
       <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
         <v>59</v>
-      </c>
-      <c r="M5" t="s">
-        <v>60</v>
       </c>
       <c r="N5" t="s">
         <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
         <v>32</v>
@@ -1042,13 +1039,13 @@
         <v>33</v>
       </c>
       <c r="R5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
         <v>35</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
         <v>37</v>
@@ -1056,7 +1053,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>45183.173402777778</v>
@@ -1074,25 +1071,25 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
         <v>65</v>
       </c>
-      <c r="H6" t="s">
-        <v>66</v>
-      </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6">
         <v>22345</v>
       </c>
       <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="s">
         <v>59</v>
       </c>
-      <c r="M6" t="s">
-        <v>60</v>
-      </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
         <v>31</v>
@@ -1109,7 +1106,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1">
         <v>45183.185196759259</v>
@@ -1127,25 +1124,25 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
         <v>65</v>
       </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7">
         <v>22345</v>
       </c>
       <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
         <v>59</v>
       </c>
-      <c r="M7" t="s">
-        <v>60</v>
-      </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s">
         <v>31</v>
@@ -1162,49 +1159,49 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
         <v>45183.192789351851</v>
       </c>
       <c r="C8">
-        <v>12222</v>
+        <v>1227809</v>
       </c>
       <c r="D8">
         <v>935939</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
       </c>
       <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
         <v>65</v>
       </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8">
         <v>22345</v>
       </c>
       <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
         <v>70</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>71</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>72</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>73</v>
-      </c>
-      <c r="P8" t="s">
-        <v>74</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
         <v>45183.765092592592</v>
@@ -1230,28 +1227,28 @@
         <v>9196382571</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
         <v>65</v>
       </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9">
         <v>10123</v>
       </c>
       <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
         <v>77</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>78</v>
-      </c>
-      <c r="N9" t="s">
-        <v>79</v>
       </c>
       <c r="O9" t="s">
         <v>31</v>
@@ -1268,7 +1265,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
         <v>45183.765092592592</v>
@@ -1283,28 +1280,28 @@
         <v>9196382571</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
         <v>65</v>
       </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10">
         <v>10123</v>
       </c>
       <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
         <v>77</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
       </c>
       <c r="O10" t="s">
         <v>31</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1">
         <v>45183.765092592592</v>
@@ -1336,28 +1333,28 @@
         <v>9196382571</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11">
         <v>10123</v>
       </c>
       <c r="L11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
         <v>77</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
@@ -1374,7 +1371,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1">
         <v>45188.680763888886</v>
@@ -1392,28 +1389,28 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12">
         <v>10107</v>
       </c>
       <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
         <v>81</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>82</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>83</v>
-      </c>
-      <c r="O12" t="s">
-        <v>84</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
@@ -1427,7 +1424,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1">
         <v>45188.776261574072</v>
@@ -1442,31 +1439,31 @@
         <v>873629384</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <v>10107</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
         <v>43</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
@@ -1475,13 +1472,13 @@
         <v>33</v>
       </c>
       <c r="R13" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" t="s">
         <v>88</v>
-      </c>
-      <c r="S13" t="s">
-        <v>86</v>
-      </c>
-      <c r="T13" t="s">
-        <v>89</v>
       </c>
       <c r="U13" t="s">
         <v>37</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1">
         <v>45192.973854166667</v>
@@ -1507,28 +1504,28 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
         <v>65</v>
       </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14">
         <v>10107</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" t="s">
         <v>91</v>
       </c>
-      <c r="N14" t="s">
-        <v>92</v>
-      </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
@@ -1537,7 +1534,7 @@
         <v>33</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S14" t="s">
         <v>35</v>
@@ -1548,7 +1545,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1">
         <v>45192.982870370368</v>
@@ -1566,25 +1563,25 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
         <v>65</v>
       </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15">
         <v>10107</v>
       </c>
       <c r="L15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O15" t="s">
         <v>31</v>
@@ -1596,10 +1593,10 @@
         <v>33</v>
       </c>
       <c r="R15" t="s">
+        <v>93</v>
+      </c>
+      <c r="S15" t="s">
         <v>94</v>
-      </c>
-      <c r="S15" t="s">
-        <v>95</v>
       </c>
       <c r="U15" t="s">
         <v>37</v>
@@ -1607,7 +1604,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1">
         <v>45193.165798611109</v>
@@ -1622,31 +1619,31 @@
         <v>9848881643</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
         <v>65</v>
       </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16">
         <v>10107</v>
       </c>
       <c r="L16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" t="s">
         <v>81</v>
-      </c>
-      <c r="M16" t="s">
-        <v>82</v>
       </c>
       <c r="N16" t="s">
         <v>43</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s">
         <v>44</v>
@@ -1655,7 +1652,7 @@
         <v>33</v>
       </c>
       <c r="R16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S16" t="s">
         <v>35</v>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1">
         <v>45193.165798611109</v>
@@ -1681,25 +1678,25 @@
         <v>9848881643</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
         <v>65</v>
       </c>
-      <c r="H17" t="s">
-        <v>66</v>
-      </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17">
         <v>10107</v>
       </c>
       <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" t="s">
         <v>81</v>
-      </c>
-      <c r="M17" t="s">
-        <v>82</v>
       </c>
       <c r="N17" t="s">
         <v>43</v>
@@ -1714,7 +1711,7 @@
         <v>33</v>
       </c>
       <c r="R17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S17" t="s">
         <v>35</v>
